--- a/0. Dati Iniziali/PortfolioMP_Vendite.xlsx
+++ b/0. Dati Iniziali/PortfolioMP_Vendite.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29725"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\PerixMonitor\0. Dati Iniziali\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FB6C1A6-BD70-4CC0-A21D-6B61E3AF00D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38F8DFC3-2717-47D8-9F5A-61580B30CCC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="490" windowWidth="38620" windowHeight="21220" xr2:uid="{461EA0C3-CC98-4DCD-BC5C-C997A9959903}"/>
+    <workbookView xWindow="4520" yWindow="5120" windowWidth="26800" windowHeight="10340" xr2:uid="{461EA0C3-CC98-4DCD-BC5C-C997A9959903}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" calcMode="manual"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>Descrizione Titolo</t>
   </si>
@@ -93,9 +93,6 @@
     <t>Operazione</t>
   </si>
   <si>
-    <t>EUR</t>
-  </si>
-  <si>
     <t>Prezzo Corrente (EUR)</t>
   </si>
   <si>
@@ -121,6 +118,12 @@
   </si>
   <si>
     <t>Vendita</t>
+  </si>
+  <si>
+    <t>MEDIOBANCA AB N</t>
+  </si>
+  <si>
+    <t>IT0005630253</t>
   </si>
 </sst>
 </file>
@@ -248,7 +251,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -263,6 +266,18 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -271,50 +286,13 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="47">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="21">
     <dxf>
       <fill>
         <patternFill>
@@ -337,6 +315,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -351,28 +343,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -396,236 +367,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF0070C0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF0070C0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF0070C0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF0070C0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="12" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
       <fill>
         <patternFill patternType="none">
@@ -676,13 +417,83 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.00;;\-"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor auto="1"/>
         </patternFill>
       </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.00;;\-"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -789,6 +600,24 @@
           <color indexed="64"/>
         </horizontal>
       </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -825,24 +654,6 @@
         <bottom/>
       </border>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -857,22 +668,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{04F4BF02-F5A0-427F-92C4-A60283CF04F1}" name="Table1" displayName="Table1" ref="A1:I4" totalsRowShown="0" headerRowDxfId="44" dataDxfId="45" tableBorderDxfId="46">
-  <autoFilter ref="A1:I4" xr:uid="{04F4BF02-F5A0-427F-92C4-A60283CF04F1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{04F4BF02-F5A0-427F-92C4-A60283CF04F1}" name="Table1" displayName="Table1" ref="A1:I5" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19" tableBorderDxfId="18">
+  <autoFilter ref="A1:I5" xr:uid="{04F4BF02-F5A0-427F-92C4-A60283CF04F1}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I5">
+    <sortCondition ref="F1:F5"/>
+  </sortState>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{B8061C36-8993-4203-ABD6-C7BF7558D40C}" name="Descrizione Titolo" dataDxfId="43"/>
-    <tableColumn id="2" xr3:uid="{C4CDF0AD-2602-44A7-AA26-292542A274A0}" name="ISIN" dataDxfId="42"/>
-    <tableColumn id="3" xr3:uid="{0A18EC50-C250-41F4-83C1-E84B3FDD76A5}" name="Quantità" dataDxfId="41"/>
-    <tableColumn id="4" xr3:uid="{F21CA34D-52E3-4C7A-A959-24C01F694687}" name="Divisa" dataDxfId="40"/>
-    <tableColumn id="5" xr3:uid="{5C9AD5B2-888B-43C8-AC2C-1789ADAB0AD8}" name="Prezzo Carico (EUR)" dataDxfId="37"/>
-    <tableColumn id="6" xr3:uid="{1CC3BD49-EF04-4684-84DC-5AB42F08A1CD}" name="Data (acquisto/vendita)" dataDxfId="35"/>
-    <tableColumn id="7" xr3:uid="{0B72A75D-196B-42C0-9E49-163198DF8CDB}" name="Operazione" dataDxfId="36"/>
-    <tableColumn id="8" xr3:uid="{8C52C664-8EA8-4E89-892F-C9CCC6BB2E54}" name="Prezzo Operazione (EUR)" dataDxfId="39">
-      <calculatedColumnFormula>+Table1[[#This Row],[Prezzo Carico (EUR)]]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="9" xr3:uid="{20AB3F10-3CEF-4BB7-ACA8-F58F613D5EBF}" name="Prezzo Corrente (EUR)" dataDxfId="38">
-      <calculatedColumnFormula>+Table1[[#This Row],[Prezzo Operazione (EUR)]]</calculatedColumnFormula>
-    </tableColumn>
+    <tableColumn id="1" xr3:uid="{B8061C36-8993-4203-ABD6-C7BF7558D40C}" name="Descrizione Titolo" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{C4CDF0AD-2602-44A7-AA26-292542A274A0}" name="ISIN" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{0A18EC50-C250-41F4-83C1-E84B3FDD76A5}" name="Quantità" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{F21CA34D-52E3-4C7A-A959-24C01F694687}" name="Divisa" dataDxfId="14"/>
+    <tableColumn id="5" xr3:uid="{5C9AD5B2-888B-43C8-AC2C-1789ADAB0AD8}" name="Prezzo Carico (EUR)" dataDxfId="13"/>
+    <tableColumn id="6" xr3:uid="{1CC3BD49-EF04-4684-84DC-5AB42F08A1CD}" name="Data (acquisto/vendita)" dataDxfId="12"/>
+    <tableColumn id="7" xr3:uid="{0B72A75D-196B-42C0-9E49-163198DF8CDB}" name="Operazione" dataDxfId="11"/>
+    <tableColumn id="8" xr3:uid="{8C52C664-8EA8-4E89-892F-C9CCC6BB2E54}" name="Prezzo Operazione (EUR)" dataDxfId="10"/>
+    <tableColumn id="9" xr3:uid="{20AB3F10-3CEF-4BB7-ACA8-F58F613D5EBF}" name="Prezzo Corrente (EUR)" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1195,10 +1005,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{840B4B52-5CB9-41B5-89C1-B1D0A0795C06}">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1238,137 +1048,140 @@
         <v>6</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C2" s="7">
         <v>200</v>
       </c>
-      <c r="D2" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="7">
-        <v>99.77</v>
-      </c>
+      <c r="D2" s="8"/>
+      <c r="E2" s="7"/>
       <c r="F2" s="9">
-        <v>46000</v>
+        <v>45691</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H2" s="11">
-        <f>+Table1[[#This Row],[Prezzo Carico (EUR)]]</f>
-        <v>99.77</v>
-      </c>
-      <c r="I2" s="11">
-        <f>+Table1[[#This Row],[Prezzo Operazione (EUR)]]</f>
-        <v>99.77</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="I2" s="11"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C3" s="7">
         <v>290.43000000000006</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="7">
-        <v>87.51</v>
-      </c>
+      <c r="D3" s="8"/>
+      <c r="E3" s="7"/>
       <c r="F3" s="9">
         <v>45807</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H3" s="11">
-        <f>+Table1[[#This Row],[Prezzo Carico (EUR)]]</f>
         <v>87.51</v>
       </c>
-      <c r="I3" s="11">
-        <f>+Table1[[#This Row],[Prezzo Operazione (EUR)]]</f>
-        <v>87.51</v>
-      </c>
+      <c r="I3" s="11"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>12</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>15</v>
       </c>
       <c r="C4" s="7">
         <v>200</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="7">
-        <v>100</v>
-      </c>
+      <c r="D4" s="8"/>
+      <c r="E4" s="7"/>
       <c r="F4" s="9">
-        <v>45355</v>
+        <v>46000</v>
       </c>
       <c r="G4" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="11">
+        <v>99.77</v>
+      </c>
+      <c r="I4" s="11"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="11">
-        <f>+Table1[[#This Row],[Prezzo Carico (EUR)]]</f>
-        <v>100</v>
-      </c>
-      <c r="I4" s="11">
-        <f>+Table1[[#This Row],[Prezzo Operazione (EUR)]]</f>
-        <v>100</v>
-      </c>
+      <c r="B5" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="7">
+        <v>3198</v>
+      </c>
+      <c r="D5" s="14"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="15">
+        <v>46038</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="11">
+        <f>16162.69/Table1[[#This Row],[Quantità]]</f>
+        <v>5.0539993746091305</v>
+      </c>
+      <c r="I5" s="16"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H10" s="17"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:A4">
-    <cfRule type="containsText" dxfId="6" priority="16" stopIfTrue="1" operator="containsText" text="BTP">
+  <conditionalFormatting sqref="A2:A5">
+    <cfRule type="containsText" dxfId="8" priority="18" stopIfTrue="1" operator="containsText" text="BTP">
       <formula>NOT(ISERROR(SEARCH("BTP",A2)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="19" stopIfTrue="1">
       <formula>IF(AND(ISNUMBER(SEARCH("H2O", A2)), ISNUMBER(SEARCH("SP", A2))), 1,0)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D4">
-    <cfRule type="notContainsText" dxfId="4" priority="18" stopIfTrue="1" operator="notContains" text="EUR">
-      <formula>ISERROR(SEARCH("EUR",D2))</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="3" priority="18">
-      <formula>LEN(TRIM(D2))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="C2:C4">
-    <cfRule type="containsBlanks" dxfId="2" priority="14">
+    <cfRule type="containsBlanks" dxfId="6" priority="16">
       <formula>LEN(TRIM(C2))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G4">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Vendita">
+  <conditionalFormatting sqref="G2:G5">
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="Vendita">
       <formula>NOT(ISERROR(SEARCH("Vendita",G2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="Acquisto">
+    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="Acquisto">
       <formula>NOT(ISERROR(SEARCH("Acquisto",G2)))</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="A5">
+    <cfRule type="containsText" dxfId="1" priority="1" stopIfTrue="1" operator="containsText" text="BTP">
+      <formula>NOT(ISERROR(SEARCH("BTP",A5)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
+      <formula>IF(AND(ISNUMBER(SEARCH("H2O", A5)), ISNUMBER(SEARCH("SP", A5))), 1,0)</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G4" xr:uid="{786B1B08-543B-41BE-8266-499A04655516}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G5" xr:uid="{786B1B08-543B-41BE-8266-499A04655516}">
       <formula1>"Acquisto,Vendita,-"</formula1>
     </dataValidation>
   </dataValidations>

--- a/0. Dati Iniziali/PortfolioMP_Vendite.xlsx
+++ b/0. Dati Iniziali/PortfolioMP_Vendite.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\PerixMonitor\0. Dati Iniziali\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38F8DFC3-2717-47D8-9F5A-61580B30CCC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9906B2D9-1632-4CF8-9DD9-F94591340C60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4520" yWindow="5120" windowWidth="26800" windowHeight="10340" xr2:uid="{461EA0C3-CC98-4DCD-BC5C-C997A9959903}"/>
+    <workbookView xWindow="-110" yWindow="490" windowWidth="38620" windowHeight="21220" xr2:uid="{461EA0C3-CC98-4DCD-BC5C-C997A9959903}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -251,7 +251,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -278,21 +278,33 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="21">
+  <dxfs count="19">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -309,41 +321,6 @@
       <fill>
         <patternFill>
           <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -668,21 +645,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{04F4BF02-F5A0-427F-92C4-A60283CF04F1}" name="Table1" displayName="Table1" ref="A1:I5" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19" tableBorderDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{04F4BF02-F5A0-427F-92C4-A60283CF04F1}" name="Table1" displayName="Table1" ref="A1:I5" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17" tableBorderDxfId="16">
   <autoFilter ref="A1:I5" xr:uid="{04F4BF02-F5A0-427F-92C4-A60283CF04F1}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I5">
     <sortCondition ref="F1:F5"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{B8061C36-8993-4203-ABD6-C7BF7558D40C}" name="Descrizione Titolo" dataDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{C4CDF0AD-2602-44A7-AA26-292542A274A0}" name="ISIN" dataDxfId="16"/>
-    <tableColumn id="3" xr3:uid="{0A18EC50-C250-41F4-83C1-E84B3FDD76A5}" name="Quantità" dataDxfId="15"/>
-    <tableColumn id="4" xr3:uid="{F21CA34D-52E3-4C7A-A959-24C01F694687}" name="Divisa" dataDxfId="14"/>
-    <tableColumn id="5" xr3:uid="{5C9AD5B2-888B-43C8-AC2C-1789ADAB0AD8}" name="Prezzo Carico (EUR)" dataDxfId="13"/>
-    <tableColumn id="6" xr3:uid="{1CC3BD49-EF04-4684-84DC-5AB42F08A1CD}" name="Data (acquisto/vendita)" dataDxfId="12"/>
-    <tableColumn id="7" xr3:uid="{0B72A75D-196B-42C0-9E49-163198DF8CDB}" name="Operazione" dataDxfId="11"/>
-    <tableColumn id="8" xr3:uid="{8C52C664-8EA8-4E89-892F-C9CCC6BB2E54}" name="Prezzo Operazione (EUR)" dataDxfId="10"/>
-    <tableColumn id="9" xr3:uid="{20AB3F10-3CEF-4BB7-ACA8-F58F613D5EBF}" name="Prezzo Corrente (EUR)" dataDxfId="9"/>
+    <tableColumn id="1" xr3:uid="{B8061C36-8993-4203-ABD6-C7BF7558D40C}" name="Descrizione Titolo" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{C4CDF0AD-2602-44A7-AA26-292542A274A0}" name="ISIN" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{0A18EC50-C250-41F4-83C1-E84B3FDD76A5}" name="Quantità" dataDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{F21CA34D-52E3-4C7A-A959-24C01F694687}" name="Divisa" dataDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{5C9AD5B2-888B-43C8-AC2C-1789ADAB0AD8}" name="Prezzo Carico (EUR)" dataDxfId="11"/>
+    <tableColumn id="6" xr3:uid="{1CC3BD49-EF04-4684-84DC-5AB42F08A1CD}" name="Data (acquisto/vendita)" dataDxfId="10"/>
+    <tableColumn id="7" xr3:uid="{0B72A75D-196B-42C0-9E49-163198DF8CDB}" name="Operazione" dataDxfId="9"/>
+    <tableColumn id="8" xr3:uid="{8C52C664-8EA8-4E89-892F-C9CCC6BB2E54}" name="Prezzo Operazione (EUR)" dataDxfId="8"/>
+    <tableColumn id="9" xr3:uid="{20AB3F10-3CEF-4BB7-ACA8-F58F613D5EBF}" name="Prezzo Corrente (EUR)" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1008,7 +985,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1124,18 +1101,18 @@
       <c r="I4" s="11"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="6" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="7">
         <v>3198</v>
       </c>
-      <c r="D5" s="14"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="15">
+      <c r="D5" s="8"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="9">
         <v>46038</v>
       </c>
       <c r="G5" s="10" t="s">
@@ -1145,39 +1122,39 @@
         <f>16162.69/Table1[[#This Row],[Quantità]]</f>
         <v>5.0539993746091305</v>
       </c>
-      <c r="I5" s="16"/>
+      <c r="I5" s="11"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="H10" s="17"/>
+      <c r="H10" s="12"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A5">
-    <cfRule type="containsText" dxfId="8" priority="18" stopIfTrue="1" operator="containsText" text="BTP">
+    <cfRule type="containsText" dxfId="6" priority="18" stopIfTrue="1" operator="containsText" text="BTP">
       <formula>NOT(ISERROR(SEARCH("BTP",A2)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="19" stopIfTrue="1">
       <formula>IF(AND(ISNUMBER(SEARCH("H2O", A2)), ISNUMBER(SEARCH("SP", A2))), 1,0)</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="A5">
+    <cfRule type="containsText" dxfId="4" priority="1" stopIfTrue="1" operator="containsText" text="BTP">
+      <formula>NOT(ISERROR(SEARCH("BTP",A5)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2" stopIfTrue="1">
+      <formula>IF(AND(ISNUMBER(SEARCH("H2O", A5)), ISNUMBER(SEARCH("SP", A5))), 1,0)</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="C2:C4">
-    <cfRule type="containsBlanks" dxfId="6" priority="16">
+    <cfRule type="containsBlanks" dxfId="2" priority="16">
       <formula>LEN(TRIM(C2))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G5">
-    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="Vendita">
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="Vendita">
       <formula>NOT(ISERROR(SEARCH("Vendita",G2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="Acquisto">
+    <cfRule type="containsText" dxfId="0" priority="4" operator="containsText" text="Acquisto">
       <formula>NOT(ISERROR(SEARCH("Acquisto",G2)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A5">
-    <cfRule type="containsText" dxfId="1" priority="1" stopIfTrue="1" operator="containsText" text="BTP">
-      <formula>NOT(ISERROR(SEARCH("BTP",A5)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
-      <formula>IF(AND(ISNUMBER(SEARCH("H2O", A5)), ISNUMBER(SEARCH("SP", A5))), 1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
